--- a/nmadb/501274.xlsx
+++ b/nmadb/501274.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
@@ -11,28 +11,16 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" refMode="R1C1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Study</t>
   </si>
   <si>
-    <t>Study id</t>
-  </si>
-  <si>
-    <t>Treatment 1</t>
-  </si>
-  <si>
-    <t>Treatment 2</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
     <t>Table II</t>
   </si>
   <si>
@@ -40,9 +28,6 @@
   </si>
   <si>
     <t>Harmful</t>
-  </si>
-  <si>
-    <t>log(HR)</t>
   </si>
   <si>
     <t>Year</t>
@@ -96,12 +81,30 @@
       <t>Survival with treatment regimens for advanced colorectal cancer - death</t>
     </r>
   </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>effect=log(HR)</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,74 +183,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -257,14 +192,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="D8D8EB"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -331,7 +266,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -366,7 +300,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -542,14 +475,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -557,39 +490,39 @@
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="3" customFormat="1">
       <c r="A2" s="9">
         <v>2002</v>
       </c>
@@ -612,19 +545,19 @@
         <v>0.16852299546352717</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K2" s="3">
         <v>1</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="3" customFormat="1">
       <c r="A3" s="9">
         <v>2000</v>
       </c>
@@ -650,10 +583,10 @@
         <v>2</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="9">
         <v>2002</v>
       </c>
@@ -679,10 +612,10 @@
         <v>3</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="9">
         <v>2004</v>
       </c>
@@ -708,10 +641,10 @@
         <v>4</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="9">
         <v>2003</v>
       </c>
@@ -737,10 +670,10 @@
         <v>5</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="9">
         <v>2000</v>
       </c>
@@ -766,10 +699,10 @@
         <v>6</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="9">
         <v>2000</v>
       </c>
@@ -795,10 +728,10 @@
         <v>7</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="9">
         <v>2000</v>
       </c>
@@ -824,10 +757,10 @@
         <v>8</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="9">
         <v>1998</v>
       </c>
@@ -853,10 +786,10 @@
         <v>9</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="9">
         <v>2004</v>
       </c>
@@ -882,10 +815,10 @@
         <v>10</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="9">
         <v>2004</v>
       </c>
@@ -911,10 +844,10 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="9">
         <v>2004</v>
       </c>
@@ -937,7 +870,7 @@
         <v>0.14866068747318506</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="9">
         <v>2005</v>
       </c>
@@ -959,8 +892,11 @@
       <c r="G14">
         <v>0.17233687939614087</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="9">
         <v>2005</v>
       </c>
@@ -983,7 +919,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="9">
         <v>2005</v>
       </c>
@@ -1006,7 +942,7 @@
         <v>0.13784048752090222</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="9">
         <v>2005</v>
       </c>
@@ -1029,7 +965,7 @@
         <v>0.15779733838059501</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="9">
         <v>2005</v>
       </c>
@@ -1052,7 +988,7 @@
         <v>0.17029386365926402</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="9">
         <v>2005</v>
       </c>
@@ -1075,7 +1011,7 @@
         <v>9.7467943448089636E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="9">
         <v>2005</v>
       </c>
@@ -1098,7 +1034,7 @@
         <v>0.1174734012447073</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="9">
         <v>2005</v>
       </c>
@@ -1121,7 +1057,7 @@
         <v>0.34307433596816883</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="9">
         <v>2006</v>
       </c>
@@ -1144,7 +1080,7 @@
         <v>0.12124355652982141</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="9">
         <v>2006</v>
       </c>
@@ -1167,7 +1103,7 @@
         <v>0.15099668870541499</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="9">
         <v>2006</v>
       </c>
@@ -1190,7 +1126,7 @@
         <v>0.12206555615733702</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="9">
         <v>2006</v>
       </c>
@@ -1213,7 +1149,7 @@
         <v>0.161245154965971</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="9">
         <v>2007</v>
       </c>
@@ -1236,7 +1172,7 @@
         <v>0.16643316977093237</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="9">
         <v>2007</v>
       </c>
@@ -1259,7 +1195,7 @@
         <v>0.33196385345395663</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="9">
         <v>2007</v>
       </c>
@@ -1282,7 +1218,7 @@
         <v>6.5574385243020006E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="9">
         <v>2007</v>
       </c>
@@ -1305,7 +1241,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="9">
         <v>2007</v>
       </c>
@@ -1328,7 +1264,7 @@
         <v>0.1824828759089466</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="11">
         <v>2004</v>
       </c>
@@ -1351,7 +1287,7 @@
         <v>0.10677078252031312</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="11">
         <v>2004</v>
       </c>
@@ -1374,7 +1310,7 @@
         <v>0.10583005244258362</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="11">
         <v>2003</v>
       </c>
@@ -1397,7 +1333,7 @@
         <v>0.378021163428716</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="11">
         <v>2003</v>
       </c>
@@ -1420,7 +1356,7 @@
         <v>0.43646305685590392</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="11">
         <v>2000</v>
       </c>
@@ -1443,7 +1379,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="11">
         <v>2000</v>
       </c>
@@ -1466,7 +1402,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="11">
         <v>2007</v>
       </c>
@@ -1489,7 +1425,7 @@
         <v>8.7749643873921215E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="11">
         <v>2007</v>
       </c>
@@ -1512,7 +1448,7 @@
         <v>9.1104335791442989E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="11">
         <v>2007</v>
       </c>
@@ -1535,7 +1471,7 @@
         <v>8.1853527718724506E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="11">
         <v>2007</v>
       </c>
@@ -1558,7 +1494,7 @@
         <v>6.4031242374328487E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="11">
         <v>2007</v>
       </c>
@@ -1581,7 +1517,7 @@
         <v>7.8740078740118111E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="11">
         <v>2007</v>
       </c>
@@ -1604,140 +1540,140 @@
         <v>6.7823299831252681E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="B43" s="3"/>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="B44" s="3"/>
       <c r="C44" s="5"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="B45" s="3"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="B46" s="3"/>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="B47" s="3"/>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="B48" s="3"/>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6">
       <c r="B49" s="3"/>
       <c r="C49" s="5"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6">
       <c r="B50" s="3"/>
       <c r="C50" s="5"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6">
       <c r="B51" s="3"/>
       <c r="C51" s="5"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6">
       <c r="B52" s="3"/>
       <c r="C52" s="5"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6">
       <c r="B53" s="3"/>
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6">
       <c r="B54" s="3"/>
       <c r="C54" s="5"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6">
       <c r="B55" s="3"/>
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6">
       <c r="B56" s="3"/>
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6">
       <c r="B57" s="3"/>
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6">
       <c r="B58" s="3"/>
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="5"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6">
       <c r="B59" s="3"/>
       <c r="C59" s="5"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="5"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6">
       <c r="B60" s="3"/>
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="5"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6">
       <c r="B61" s="3"/>
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6">
       <c r="B62" s="3"/>
       <c r="C62" s="5"/>
       <c r="D62" s="6"/>
@@ -1753,24 +1689,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
